--- a/接口文档/前台/博客接口文档.xlsx
+++ b/接口文档/前台/博客接口文档.xlsx
@@ -105,13 +105,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -161,30 +161,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,22 +174,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -220,35 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -264,6 +204,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -273,15 +220,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +255,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -331,37 +323,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,145 +473,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,24 +534,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,41 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,153 +590,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -842,7 +834,7 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,7 +843,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">

--- a/接口文档/前台/博客接口文档.xlsx
+++ b/接口文档/前台/博客接口文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>模块</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>参数</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
   <si>
     <t>备注</t>
@@ -43,10 +46,10 @@
     <t>/api/admin/blog/findById</t>
   </si>
   <si>
-    <t>/{id}</t>
+    <t>id</t>
   </si>
   <si>
-    <t>http://localhost:8888/api/admin/blog/findById/{id}</t>
+    <t>GET</t>
   </si>
   <si>
     <t>根据id查询博客</t>
@@ -58,10 +61,27 @@
     <t>/api/admin/blog/findAll</t>
   </si>
   <si>
-    <t>/{start}/{pageSize}</t>
-  </si>
-  <si>
-    <t>http://localhost:8888/api/admin/blog/findAll/{start}/{pageSize}</t>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pageSize</t>
+    </r>
   </si>
   <si>
     <t>根据页码和条数查询博客</t>
@@ -70,10 +90,7 @@
     <t>删除</t>
   </si>
   <si>
-    <t>/api/admin/blog/deleteById</t>
-  </si>
-  <si>
-    <t>http://localhost:8888/api/admin/blog/deleteById/{id}</t>
+    <t>/api/admin/blog/delete</t>
   </si>
   <si>
     <t>根据id删除博客(软删除)</t>
@@ -82,22 +99,19 @@
     <t>更新博客</t>
   </si>
   <si>
-    <t>/api/admin/blogUpdateById</t>
+    <t>/api/admin/blog/Update</t>
   </si>
   <si>
     <t>title、summary、content、tag、vote</t>
   </si>
   <si>
-    <t>http://localhost:8888/api/admin/blog/updateById?参数</t>
+    <t>POST</t>
   </si>
   <si>
     <t>写博客</t>
   </si>
   <si>
-    <t>/api/admin/addBlog</t>
-  </si>
-  <si>
-    <t>http://localhost:8888/api/admin/blog/updateAddBlug?参数</t>
+    <t>/api/admin/add</t>
   </si>
 </sst>
 </file>
@@ -105,13 +119,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -146,6 +160,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -168,22 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,84 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +226,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -301,6 +278,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -329,19 +351,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,157 +501,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,65 +550,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +578,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -629,157 +610,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -804,31 +826,40 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,10 +871,7 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2050,10 +2078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:IW30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1"/>
@@ -2061,12 +2089,13 @@
     <col min="1" max="1" width="16.5047619047619" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.1714285714286" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.6761904761905" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.8571428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.7142857142857" style="3" customWidth="1"/>
-    <col min="6" max="256" width="8.17142857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.8571428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.7142857142857" style="3" customWidth="1"/>
+    <col min="7" max="257" width="8.17142857142857" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:5">
+    <row r="1" ht="31" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2079,529 +2108,557 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="22.6" customHeight="1" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="22.6" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" ht="22.85" customHeight="1" spans="1:5">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="22.85" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="42.8" customHeight="1" spans="1:5">
+      <c r="E3" s="9"/>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="42.8" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="22.75" customHeight="1" spans="1:256">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="1" customFormat="1" ht="22.75" customHeight="1" spans="1:257">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="16"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="16"/>
+      <c r="BQ5" s="16"/>
+      <c r="BR5" s="16"/>
+      <c r="BS5" s="16"/>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="16"/>
+      <c r="BW5" s="16"/>
+      <c r="BX5" s="16"/>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
+      <c r="CX5" s="16"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
+      <c r="DD5" s="16"/>
+      <c r="DE5" s="16"/>
+      <c r="DF5" s="16"/>
+      <c r="DG5" s="16"/>
+      <c r="DH5" s="16"/>
+      <c r="DI5" s="16"/>
+      <c r="DJ5" s="16"/>
+      <c r="DK5" s="16"/>
+      <c r="DL5" s="16"/>
+      <c r="DM5" s="16"/>
+      <c r="DN5" s="16"/>
+      <c r="DO5" s="16"/>
+      <c r="DP5" s="16"/>
+      <c r="DQ5" s="16"/>
+      <c r="DR5" s="16"/>
+      <c r="DS5" s="16"/>
+      <c r="DT5" s="16"/>
+      <c r="DU5" s="16"/>
+      <c r="DV5" s="16"/>
+      <c r="DW5" s="16"/>
+      <c r="DX5" s="16"/>
+      <c r="DY5" s="16"/>
+      <c r="DZ5" s="16"/>
+      <c r="EA5" s="16"/>
+      <c r="EB5" s="16"/>
+      <c r="EC5" s="16"/>
+      <c r="ED5" s="16"/>
+      <c r="EE5" s="16"/>
+      <c r="EF5" s="16"/>
+      <c r="EG5" s="16"/>
+      <c r="EH5" s="16"/>
+      <c r="EI5" s="16"/>
+      <c r="EJ5" s="16"/>
+      <c r="EK5" s="16"/>
+      <c r="EL5" s="16"/>
+      <c r="EM5" s="16"/>
+      <c r="EN5" s="16"/>
+      <c r="EO5" s="16"/>
+      <c r="EP5" s="16"/>
+      <c r="EQ5" s="16"/>
+      <c r="ER5" s="16"/>
+      <c r="ES5" s="16"/>
+      <c r="ET5" s="16"/>
+      <c r="EU5" s="16"/>
+      <c r="EV5" s="16"/>
+      <c r="EW5" s="16"/>
+      <c r="EX5" s="16"/>
+      <c r="EY5" s="16"/>
+      <c r="EZ5" s="16"/>
+      <c r="FA5" s="16"/>
+      <c r="FB5" s="16"/>
+      <c r="FC5" s="16"/>
+      <c r="FD5" s="16"/>
+      <c r="FE5" s="16"/>
+      <c r="FF5" s="16"/>
+      <c r="FG5" s="16"/>
+      <c r="FH5" s="16"/>
+      <c r="FI5" s="16"/>
+      <c r="FJ5" s="16"/>
+      <c r="FK5" s="16"/>
+      <c r="FL5" s="16"/>
+      <c r="FM5" s="16"/>
+      <c r="FN5" s="16"/>
+      <c r="FO5" s="16"/>
+      <c r="FP5" s="16"/>
+      <c r="FQ5" s="16"/>
+      <c r="FR5" s="16"/>
+      <c r="FS5" s="16"/>
+      <c r="FT5" s="16"/>
+      <c r="FU5" s="16"/>
+      <c r="FV5" s="16"/>
+      <c r="FW5" s="16"/>
+      <c r="FX5" s="16"/>
+      <c r="FY5" s="16"/>
+      <c r="FZ5" s="16"/>
+      <c r="GA5" s="16"/>
+      <c r="GB5" s="16"/>
+      <c r="GC5" s="16"/>
+      <c r="GD5" s="16"/>
+      <c r="GE5" s="16"/>
+      <c r="GF5" s="16"/>
+      <c r="GG5" s="16"/>
+      <c r="GH5" s="16"/>
+      <c r="GI5" s="16"/>
+      <c r="GJ5" s="16"/>
+      <c r="GK5" s="16"/>
+      <c r="GL5" s="16"/>
+      <c r="GM5" s="16"/>
+      <c r="GN5" s="16"/>
+      <c r="GO5" s="16"/>
+      <c r="GP5" s="16"/>
+      <c r="GQ5" s="16"/>
+      <c r="GR5" s="16"/>
+      <c r="GS5" s="16"/>
+      <c r="GT5" s="16"/>
+      <c r="GU5" s="16"/>
+      <c r="GV5" s="16"/>
+      <c r="GW5" s="16"/>
+      <c r="GX5" s="16"/>
+      <c r="GY5" s="16"/>
+      <c r="GZ5" s="16"/>
+      <c r="HA5" s="16"/>
+      <c r="HB5" s="16"/>
+      <c r="HC5" s="16"/>
+      <c r="HD5" s="16"/>
+      <c r="HE5" s="16"/>
+      <c r="HF5" s="16"/>
+      <c r="HG5" s="16"/>
+      <c r="HH5" s="16"/>
+      <c r="HI5" s="16"/>
+      <c r="HJ5" s="16"/>
+      <c r="HK5" s="16"/>
+      <c r="HL5" s="16"/>
+      <c r="HM5" s="16"/>
+      <c r="HN5" s="16"/>
+      <c r="HO5" s="16"/>
+      <c r="HP5" s="16"/>
+      <c r="HQ5" s="16"/>
+      <c r="HR5" s="16"/>
+      <c r="HS5" s="16"/>
+      <c r="HT5" s="16"/>
+      <c r="HU5" s="16"/>
+      <c r="HV5" s="16"/>
+      <c r="HW5" s="16"/>
+      <c r="HX5" s="16"/>
+      <c r="HY5" s="16"/>
+      <c r="HZ5" s="16"/>
+      <c r="IA5" s="16"/>
+      <c r="IB5" s="16"/>
+      <c r="IC5" s="16"/>
+      <c r="ID5" s="16"/>
+      <c r="IE5" s="16"/>
+      <c r="IF5" s="16"/>
+      <c r="IG5" s="16"/>
+      <c r="IH5" s="16"/>
+      <c r="II5" s="16"/>
+      <c r="IJ5" s="16"/>
+      <c r="IK5" s="16"/>
+      <c r="IL5" s="16"/>
+      <c r="IM5" s="16"/>
+      <c r="IN5" s="16"/>
+      <c r="IO5" s="16"/>
+      <c r="IP5" s="16"/>
+      <c r="IQ5" s="16"/>
+      <c r="IR5" s="16"/>
+      <c r="IS5" s="16"/>
+      <c r="IT5" s="16"/>
+      <c r="IU5" s="16"/>
+      <c r="IV5" s="16"/>
+      <c r="IW5" s="16"/>
+    </row>
+    <row r="6" ht="41" customHeight="1" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
-      <c r="BF5" s="15"/>
-      <c r="BG5" s="15"/>
-      <c r="BH5" s="15"/>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="15"/>
-      <c r="BK5" s="15"/>
-      <c r="BL5" s="15"/>
-      <c r="BM5" s="15"/>
-      <c r="BN5" s="15"/>
-      <c r="BO5" s="15"/>
-      <c r="BP5" s="15"/>
-      <c r="BQ5" s="15"/>
-      <c r="BR5" s="15"/>
-      <c r="BS5" s="15"/>
-      <c r="BT5" s="15"/>
-      <c r="BU5" s="15"/>
-      <c r="BV5" s="15"/>
-      <c r="BW5" s="15"/>
-      <c r="BX5" s="15"/>
-      <c r="BY5" s="15"/>
-      <c r="BZ5" s="15"/>
-      <c r="CA5" s="15"/>
-      <c r="CB5" s="15"/>
-      <c r="CC5" s="15"/>
-      <c r="CD5" s="15"/>
-      <c r="CE5" s="15"/>
-      <c r="CF5" s="15"/>
-      <c r="CG5" s="15"/>
-      <c r="CH5" s="15"/>
-      <c r="CI5" s="15"/>
-      <c r="CJ5" s="15"/>
-      <c r="CK5" s="15"/>
-      <c r="CL5" s="15"/>
-      <c r="CM5" s="15"/>
-      <c r="CN5" s="15"/>
-      <c r="CO5" s="15"/>
-      <c r="CP5" s="15"/>
-      <c r="CQ5" s="15"/>
-      <c r="CR5" s="15"/>
-      <c r="CS5" s="15"/>
-      <c r="CT5" s="15"/>
-      <c r="CU5" s="15"/>
-      <c r="CV5" s="15"/>
-      <c r="CW5" s="15"/>
-      <c r="CX5" s="15"/>
-      <c r="CY5" s="15"/>
-      <c r="CZ5" s="15"/>
-      <c r="DA5" s="15"/>
-      <c r="DB5" s="15"/>
-      <c r="DC5" s="15"/>
-      <c r="DD5" s="15"/>
-      <c r="DE5" s="15"/>
-      <c r="DF5" s="15"/>
-      <c r="DG5" s="15"/>
-      <c r="DH5" s="15"/>
-      <c r="DI5" s="15"/>
-      <c r="DJ5" s="15"/>
-      <c r="DK5" s="15"/>
-      <c r="DL5" s="15"/>
-      <c r="DM5" s="15"/>
-      <c r="DN5" s="15"/>
-      <c r="DO5" s="15"/>
-      <c r="DP5" s="15"/>
-      <c r="DQ5" s="15"/>
-      <c r="DR5" s="15"/>
-      <c r="DS5" s="15"/>
-      <c r="DT5" s="15"/>
-      <c r="DU5" s="15"/>
-      <c r="DV5" s="15"/>
-      <c r="DW5" s="15"/>
-      <c r="DX5" s="15"/>
-      <c r="DY5" s="15"/>
-      <c r="DZ5" s="15"/>
-      <c r="EA5" s="15"/>
-      <c r="EB5" s="15"/>
-      <c r="EC5" s="15"/>
-      <c r="ED5" s="15"/>
-      <c r="EE5" s="15"/>
-      <c r="EF5" s="15"/>
-      <c r="EG5" s="15"/>
-      <c r="EH5" s="15"/>
-      <c r="EI5" s="15"/>
-      <c r="EJ5" s="15"/>
-      <c r="EK5" s="15"/>
-      <c r="EL5" s="15"/>
-      <c r="EM5" s="15"/>
-      <c r="EN5" s="15"/>
-      <c r="EO5" s="15"/>
-      <c r="EP5" s="15"/>
-      <c r="EQ5" s="15"/>
-      <c r="ER5" s="15"/>
-      <c r="ES5" s="15"/>
-      <c r="ET5" s="15"/>
-      <c r="EU5" s="15"/>
-      <c r="EV5" s="15"/>
-      <c r="EW5" s="15"/>
-      <c r="EX5" s="15"/>
-      <c r="EY5" s="15"/>
-      <c r="EZ5" s="15"/>
-      <c r="FA5" s="15"/>
-      <c r="FB5" s="15"/>
-      <c r="FC5" s="15"/>
-      <c r="FD5" s="15"/>
-      <c r="FE5" s="15"/>
-      <c r="FF5" s="15"/>
-      <c r="FG5" s="15"/>
-      <c r="FH5" s="15"/>
-      <c r="FI5" s="15"/>
-      <c r="FJ5" s="15"/>
-      <c r="FK5" s="15"/>
-      <c r="FL5" s="15"/>
-      <c r="FM5" s="15"/>
-      <c r="FN5" s="15"/>
-      <c r="FO5" s="15"/>
-      <c r="FP5" s="15"/>
-      <c r="FQ5" s="15"/>
-      <c r="FR5" s="15"/>
-      <c r="FS5" s="15"/>
-      <c r="FT5" s="15"/>
-      <c r="FU5" s="15"/>
-      <c r="FV5" s="15"/>
-      <c r="FW5" s="15"/>
-      <c r="FX5" s="15"/>
-      <c r="FY5" s="15"/>
-      <c r="FZ5" s="15"/>
-      <c r="GA5" s="15"/>
-      <c r="GB5" s="15"/>
-      <c r="GC5" s="15"/>
-      <c r="GD5" s="15"/>
-      <c r="GE5" s="15"/>
-      <c r="GF5" s="15"/>
-      <c r="GG5" s="15"/>
-      <c r="GH5" s="15"/>
-      <c r="GI5" s="15"/>
-      <c r="GJ5" s="15"/>
-      <c r="GK5" s="15"/>
-      <c r="GL5" s="15"/>
-      <c r="GM5" s="15"/>
-      <c r="GN5" s="15"/>
-      <c r="GO5" s="15"/>
-      <c r="GP5" s="15"/>
-      <c r="GQ5" s="15"/>
-      <c r="GR5" s="15"/>
-      <c r="GS5" s="15"/>
-      <c r="GT5" s="15"/>
-      <c r="GU5" s="15"/>
-      <c r="GV5" s="15"/>
-      <c r="GW5" s="15"/>
-      <c r="GX5" s="15"/>
-      <c r="GY5" s="15"/>
-      <c r="GZ5" s="15"/>
-      <c r="HA5" s="15"/>
-      <c r="HB5" s="15"/>
-      <c r="HC5" s="15"/>
-      <c r="HD5" s="15"/>
-      <c r="HE5" s="15"/>
-      <c r="HF5" s="15"/>
-      <c r="HG5" s="15"/>
-      <c r="HH5" s="15"/>
-      <c r="HI5" s="15"/>
-      <c r="HJ5" s="15"/>
-      <c r="HK5" s="15"/>
-      <c r="HL5" s="15"/>
-      <c r="HM5" s="15"/>
-      <c r="HN5" s="15"/>
-      <c r="HO5" s="15"/>
-      <c r="HP5" s="15"/>
-      <c r="HQ5" s="15"/>
-      <c r="HR5" s="15"/>
-      <c r="HS5" s="15"/>
-      <c r="HT5" s="15"/>
-      <c r="HU5" s="15"/>
-      <c r="HV5" s="15"/>
-      <c r="HW5" s="15"/>
-      <c r="HX5" s="15"/>
-      <c r="HY5" s="15"/>
-      <c r="HZ5" s="15"/>
-      <c r="IA5" s="15"/>
-      <c r="IB5" s="15"/>
-      <c r="IC5" s="15"/>
-      <c r="ID5" s="15"/>
-      <c r="IE5" s="15"/>
-      <c r="IF5" s="15"/>
-      <c r="IG5" s="15"/>
-      <c r="IH5" s="15"/>
-      <c r="II5" s="15"/>
-      <c r="IJ5" s="15"/>
-      <c r="IK5" s="15"/>
-      <c r="IL5" s="15"/>
-      <c r="IM5" s="15"/>
-      <c r="IN5" s="15"/>
-      <c r="IO5" s="15"/>
-      <c r="IP5" s="15"/>
-      <c r="IQ5" s="15"/>
-      <c r="IR5" s="15"/>
-      <c r="IS5" s="15"/>
-      <c r="IT5" s="15"/>
-      <c r="IU5" s="15"/>
-      <c r="IV5" s="15"/>
-    </row>
-    <row r="6" ht="41" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A7" s="17" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A8" s="19"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A8" s="22"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A9" s="22"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A9" s="24"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A10" s="23"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A10" s="25"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A11" s="22"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A11" s="24"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A12" s="23"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A12" s="25"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A13" s="22"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A13" s="24"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A14" s="23"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A14" s="25"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A15" s="22"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A15" s="24"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A16" s="23"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A16" s="25"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A17" s="22"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A17" s="24"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A18" s="23"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A18" s="25"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A19" s="22"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A19" s="24"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A20" s="23"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A20" s="25"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A21" s="22"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A21" s="24"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A22" s="23"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A22" s="25"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A23" s="22"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A23" s="24"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A24" s="23"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A24" s="25"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A25" s="22"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A25" s="24"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A26" s="23"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A26" s="25"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A27" s="22"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A27" s="24"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A28" s="23"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A28" s="25"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A29" s="22"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A29" s="24"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A30" s="23"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A30" s="25"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http:/localhost:8888" tooltip="http://www.xiaomo.info"/>
-    <hyperlink ref="D5" r:id="rId2" display="http://localhost:8888/api/admin/blog/deleteById/{id}"/>
-    <hyperlink ref="D6" r:id="rId3" display="http://localhost:8888/api/admin/blog/updateById?参数"/>
-    <hyperlink ref="D7" r:id="rId4" display="http://localhost:8888/api/admin/blog/updateAddBlug?参数"/>
-    <hyperlink ref="D4" r:id="rId5" display="http://localhost:8888/api/admin/blog/findAll/{start}/{pageSize}"/>
-    <hyperlink ref="D3" r:id="rId6" display="http://localhost:8888/api/admin/blog/findById/{id}"/>
+    <hyperlink ref="E7" r:id="rId2" tooltip="http://localhost:8888/api/admin/blog/updateAddBl"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/接口文档/前台/博客接口文档.xlsx
+++ b/接口文档/前台/博客接口文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>模块</t>
   </si>
@@ -55,6 +55,18 @@
     <t>根据id查询博客</t>
   </si>
   <si>
+    <t>查询|title</t>
+  </si>
+  <si>
+    <t>/api/web/blog/findByTitle</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>根据title查询博客</t>
+  </si>
+  <si>
     <t>分页查询</t>
   </si>
   <si>
@@ -62,6 +74,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Avenir Next"/>
+        <charset val="134"/>
+      </rPr>
       <t>start</t>
     </r>
     <r>
@@ -162,6 +180,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -181,14 +207,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica"/>
@@ -205,7 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,14 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
@@ -248,8 +258,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,9 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,9 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,14 +313,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,15 +326,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +572,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -573,81 +665,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,10 +677,10 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,16 +689,16 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,115 +707,115 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -832,22 +850,25 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -859,7 +880,7 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,9 +891,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2078,10 +2096,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW30"/>
+  <dimension ref="A1:IW31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1"/>
@@ -2145,512 +2163,530 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="42.8" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="22.85" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="22.75" customHeight="1" spans="1:257">
-      <c r="A5" s="13" t="s">
+    <row r="5" ht="42.8" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="22.75" customHeight="1" spans="1:257">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="16"/>
-      <c r="BA5" s="16"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="16"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="16"/>
-      <c r="BF5" s="16"/>
-      <c r="BG5" s="16"/>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="16"/>
-      <c r="BK5" s="16"/>
-      <c r="BL5" s="16"/>
-      <c r="BM5" s="16"/>
-      <c r="BN5" s="16"/>
-      <c r="BO5" s="16"/>
-      <c r="BP5" s="16"/>
-      <c r="BQ5" s="16"/>
-      <c r="BR5" s="16"/>
-      <c r="BS5" s="16"/>
-      <c r="BT5" s="16"/>
-      <c r="BU5" s="16"/>
-      <c r="BV5" s="16"/>
-      <c r="BW5" s="16"/>
-      <c r="BX5" s="16"/>
-      <c r="BY5" s="16"/>
-      <c r="BZ5" s="16"/>
-      <c r="CA5" s="16"/>
-      <c r="CB5" s="16"/>
-      <c r="CC5" s="16"/>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="16"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
-      <c r="CU5" s="16"/>
-      <c r="CV5" s="16"/>
-      <c r="CW5" s="16"/>
-      <c r="CX5" s="16"/>
-      <c r="CY5" s="16"/>
-      <c r="CZ5" s="16"/>
-      <c r="DA5" s="16"/>
-      <c r="DB5" s="16"/>
-      <c r="DC5" s="16"/>
-      <c r="DD5" s="16"/>
-      <c r="DE5" s="16"/>
-      <c r="DF5" s="16"/>
-      <c r="DG5" s="16"/>
-      <c r="DH5" s="16"/>
-      <c r="DI5" s="16"/>
-      <c r="DJ5" s="16"/>
-      <c r="DK5" s="16"/>
-      <c r="DL5" s="16"/>
-      <c r="DM5" s="16"/>
-      <c r="DN5" s="16"/>
-      <c r="DO5" s="16"/>
-      <c r="DP5" s="16"/>
-      <c r="DQ5" s="16"/>
-      <c r="DR5" s="16"/>
-      <c r="DS5" s="16"/>
-      <c r="DT5" s="16"/>
-      <c r="DU5" s="16"/>
-      <c r="DV5" s="16"/>
-      <c r="DW5" s="16"/>
-      <c r="DX5" s="16"/>
-      <c r="DY5" s="16"/>
-      <c r="DZ5" s="16"/>
-      <c r="EA5" s="16"/>
-      <c r="EB5" s="16"/>
-      <c r="EC5" s="16"/>
-      <c r="ED5" s="16"/>
-      <c r="EE5" s="16"/>
-      <c r="EF5" s="16"/>
-      <c r="EG5" s="16"/>
-      <c r="EH5" s="16"/>
-      <c r="EI5" s="16"/>
-      <c r="EJ5" s="16"/>
-      <c r="EK5" s="16"/>
-      <c r="EL5" s="16"/>
-      <c r="EM5" s="16"/>
-      <c r="EN5" s="16"/>
-      <c r="EO5" s="16"/>
-      <c r="EP5" s="16"/>
-      <c r="EQ5" s="16"/>
-      <c r="ER5" s="16"/>
-      <c r="ES5" s="16"/>
-      <c r="ET5" s="16"/>
-      <c r="EU5" s="16"/>
-      <c r="EV5" s="16"/>
-      <c r="EW5" s="16"/>
-      <c r="EX5" s="16"/>
-      <c r="EY5" s="16"/>
-      <c r="EZ5" s="16"/>
-      <c r="FA5" s="16"/>
-      <c r="FB5" s="16"/>
-      <c r="FC5" s="16"/>
-      <c r="FD5" s="16"/>
-      <c r="FE5" s="16"/>
-      <c r="FF5" s="16"/>
-      <c r="FG5" s="16"/>
-      <c r="FH5" s="16"/>
-      <c r="FI5" s="16"/>
-      <c r="FJ5" s="16"/>
-      <c r="FK5" s="16"/>
-      <c r="FL5" s="16"/>
-      <c r="FM5" s="16"/>
-      <c r="FN5" s="16"/>
-      <c r="FO5" s="16"/>
-      <c r="FP5" s="16"/>
-      <c r="FQ5" s="16"/>
-      <c r="FR5" s="16"/>
-      <c r="FS5" s="16"/>
-      <c r="FT5" s="16"/>
-      <c r="FU5" s="16"/>
-      <c r="FV5" s="16"/>
-      <c r="FW5" s="16"/>
-      <c r="FX5" s="16"/>
-      <c r="FY5" s="16"/>
-      <c r="FZ5" s="16"/>
-      <c r="GA5" s="16"/>
-      <c r="GB5" s="16"/>
-      <c r="GC5" s="16"/>
-      <c r="GD5" s="16"/>
-      <c r="GE5" s="16"/>
-      <c r="GF5" s="16"/>
-      <c r="GG5" s="16"/>
-      <c r="GH5" s="16"/>
-      <c r="GI5" s="16"/>
-      <c r="GJ5" s="16"/>
-      <c r="GK5" s="16"/>
-      <c r="GL5" s="16"/>
-      <c r="GM5" s="16"/>
-      <c r="GN5" s="16"/>
-      <c r="GO5" s="16"/>
-      <c r="GP5" s="16"/>
-      <c r="GQ5" s="16"/>
-      <c r="GR5" s="16"/>
-      <c r="GS5" s="16"/>
-      <c r="GT5" s="16"/>
-      <c r="GU5" s="16"/>
-      <c r="GV5" s="16"/>
-      <c r="GW5" s="16"/>
-      <c r="GX5" s="16"/>
-      <c r="GY5" s="16"/>
-      <c r="GZ5" s="16"/>
-      <c r="HA5" s="16"/>
-      <c r="HB5" s="16"/>
-      <c r="HC5" s="16"/>
-      <c r="HD5" s="16"/>
-      <c r="HE5" s="16"/>
-      <c r="HF5" s="16"/>
-      <c r="HG5" s="16"/>
-      <c r="HH5" s="16"/>
-      <c r="HI5" s="16"/>
-      <c r="HJ5" s="16"/>
-      <c r="HK5" s="16"/>
-      <c r="HL5" s="16"/>
-      <c r="HM5" s="16"/>
-      <c r="HN5" s="16"/>
-      <c r="HO5" s="16"/>
-      <c r="HP5" s="16"/>
-      <c r="HQ5" s="16"/>
-      <c r="HR5" s="16"/>
-      <c r="HS5" s="16"/>
-      <c r="HT5" s="16"/>
-      <c r="HU5" s="16"/>
-      <c r="HV5" s="16"/>
-      <c r="HW5" s="16"/>
-      <c r="HX5" s="16"/>
-      <c r="HY5" s="16"/>
-      <c r="HZ5" s="16"/>
-      <c r="IA5" s="16"/>
-      <c r="IB5" s="16"/>
-      <c r="IC5" s="16"/>
-      <c r="ID5" s="16"/>
-      <c r="IE5" s="16"/>
-      <c r="IF5" s="16"/>
-      <c r="IG5" s="16"/>
-      <c r="IH5" s="16"/>
-      <c r="II5" s="16"/>
-      <c r="IJ5" s="16"/>
-      <c r="IK5" s="16"/>
-      <c r="IL5" s="16"/>
-      <c r="IM5" s="16"/>
-      <c r="IN5" s="16"/>
-      <c r="IO5" s="16"/>
-      <c r="IP5" s="16"/>
-      <c r="IQ5" s="16"/>
-      <c r="IR5" s="16"/>
-      <c r="IS5" s="16"/>
-      <c r="IT5" s="16"/>
-      <c r="IU5" s="16"/>
-      <c r="IV5" s="16"/>
-      <c r="IW5" s="16"/>
-    </row>
-    <row r="6" ht="41" customHeight="1" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A7" s="20" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="17"/>
+      <c r="BM6" s="17"/>
+      <c r="BN6" s="17"/>
+      <c r="BO6" s="17"/>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="17"/>
+      <c r="BR6" s="17"/>
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="17"/>
+      <c r="BV6" s="17"/>
+      <c r="BW6" s="17"/>
+      <c r="BX6" s="17"/>
+      <c r="BY6" s="17"/>
+      <c r="BZ6" s="17"/>
+      <c r="CA6" s="17"/>
+      <c r="CB6" s="17"/>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="17"/>
+      <c r="CE6" s="17"/>
+      <c r="CF6" s="17"/>
+      <c r="CG6" s="17"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17"/>
+      <c r="CK6" s="17"/>
+      <c r="CL6" s="17"/>
+      <c r="CM6" s="17"/>
+      <c r="CN6" s="17"/>
+      <c r="CO6" s="17"/>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="17"/>
+      <c r="CR6" s="17"/>
+      <c r="CS6" s="17"/>
+      <c r="CT6" s="17"/>
+      <c r="CU6" s="17"/>
+      <c r="CV6" s="17"/>
+      <c r="CW6" s="17"/>
+      <c r="CX6" s="17"/>
+      <c r="CY6" s="17"/>
+      <c r="CZ6" s="17"/>
+      <c r="DA6" s="17"/>
+      <c r="DB6" s="17"/>
+      <c r="DC6" s="17"/>
+      <c r="DD6" s="17"/>
+      <c r="DE6" s="17"/>
+      <c r="DF6" s="17"/>
+      <c r="DG6" s="17"/>
+      <c r="DH6" s="17"/>
+      <c r="DI6" s="17"/>
+      <c r="DJ6" s="17"/>
+      <c r="DK6" s="17"/>
+      <c r="DL6" s="17"/>
+      <c r="DM6" s="17"/>
+      <c r="DN6" s="17"/>
+      <c r="DO6" s="17"/>
+      <c r="DP6" s="17"/>
+      <c r="DQ6" s="17"/>
+      <c r="DR6" s="17"/>
+      <c r="DS6" s="17"/>
+      <c r="DT6" s="17"/>
+      <c r="DU6" s="17"/>
+      <c r="DV6" s="17"/>
+      <c r="DW6" s="17"/>
+      <c r="DX6" s="17"/>
+      <c r="DY6" s="17"/>
+      <c r="DZ6" s="17"/>
+      <c r="EA6" s="17"/>
+      <c r="EB6" s="17"/>
+      <c r="EC6" s="17"/>
+      <c r="ED6" s="17"/>
+      <c r="EE6" s="17"/>
+      <c r="EF6" s="17"/>
+      <c r="EG6" s="17"/>
+      <c r="EH6" s="17"/>
+      <c r="EI6" s="17"/>
+      <c r="EJ6" s="17"/>
+      <c r="EK6" s="17"/>
+      <c r="EL6" s="17"/>
+      <c r="EM6" s="17"/>
+      <c r="EN6" s="17"/>
+      <c r="EO6" s="17"/>
+      <c r="EP6" s="17"/>
+      <c r="EQ6" s="17"/>
+      <c r="ER6" s="17"/>
+      <c r="ES6" s="17"/>
+      <c r="ET6" s="17"/>
+      <c r="EU6" s="17"/>
+      <c r="EV6" s="17"/>
+      <c r="EW6" s="17"/>
+      <c r="EX6" s="17"/>
+      <c r="EY6" s="17"/>
+      <c r="EZ6" s="17"/>
+      <c r="FA6" s="17"/>
+      <c r="FB6" s="17"/>
+      <c r="FC6" s="17"/>
+      <c r="FD6" s="17"/>
+      <c r="FE6" s="17"/>
+      <c r="FF6" s="17"/>
+      <c r="FG6" s="17"/>
+      <c r="FH6" s="17"/>
+      <c r="FI6" s="17"/>
+      <c r="FJ6" s="17"/>
+      <c r="FK6" s="17"/>
+      <c r="FL6" s="17"/>
+      <c r="FM6" s="17"/>
+      <c r="FN6" s="17"/>
+      <c r="FO6" s="17"/>
+      <c r="FP6" s="17"/>
+      <c r="FQ6" s="17"/>
+      <c r="FR6" s="17"/>
+      <c r="FS6" s="17"/>
+      <c r="FT6" s="17"/>
+      <c r="FU6" s="17"/>
+      <c r="FV6" s="17"/>
+      <c r="FW6" s="17"/>
+      <c r="FX6" s="17"/>
+      <c r="FY6" s="17"/>
+      <c r="FZ6" s="17"/>
+      <c r="GA6" s="17"/>
+      <c r="GB6" s="17"/>
+      <c r="GC6" s="17"/>
+      <c r="GD6" s="17"/>
+      <c r="GE6" s="17"/>
+      <c r="GF6" s="17"/>
+      <c r="GG6" s="17"/>
+      <c r="GH6" s="17"/>
+      <c r="GI6" s="17"/>
+      <c r="GJ6" s="17"/>
+      <c r="GK6" s="17"/>
+      <c r="GL6" s="17"/>
+      <c r="GM6" s="17"/>
+      <c r="GN6" s="17"/>
+      <c r="GO6" s="17"/>
+      <c r="GP6" s="17"/>
+      <c r="GQ6" s="17"/>
+      <c r="GR6" s="17"/>
+      <c r="GS6" s="17"/>
+      <c r="GT6" s="17"/>
+      <c r="GU6" s="17"/>
+      <c r="GV6" s="17"/>
+      <c r="GW6" s="17"/>
+      <c r="GX6" s="17"/>
+      <c r="GY6" s="17"/>
+      <c r="GZ6" s="17"/>
+      <c r="HA6" s="17"/>
+      <c r="HB6" s="17"/>
+      <c r="HC6" s="17"/>
+      <c r="HD6" s="17"/>
+      <c r="HE6" s="17"/>
+      <c r="HF6" s="17"/>
+      <c r="HG6" s="17"/>
+      <c r="HH6" s="17"/>
+      <c r="HI6" s="17"/>
+      <c r="HJ6" s="17"/>
+      <c r="HK6" s="17"/>
+      <c r="HL6" s="17"/>
+      <c r="HM6" s="17"/>
+      <c r="HN6" s="17"/>
+      <c r="HO6" s="17"/>
+      <c r="HP6" s="17"/>
+      <c r="HQ6" s="17"/>
+      <c r="HR6" s="17"/>
+      <c r="HS6" s="17"/>
+      <c r="HT6" s="17"/>
+      <c r="HU6" s="17"/>
+      <c r="HV6" s="17"/>
+      <c r="HW6" s="17"/>
+      <c r="HX6" s="17"/>
+      <c r="HY6" s="17"/>
+      <c r="HZ6" s="17"/>
+      <c r="IA6" s="17"/>
+      <c r="IB6" s="17"/>
+      <c r="IC6" s="17"/>
+      <c r="ID6" s="17"/>
+      <c r="IE6" s="17"/>
+      <c r="IF6" s="17"/>
+      <c r="IG6" s="17"/>
+      <c r="IH6" s="17"/>
+      <c r="II6" s="17"/>
+      <c r="IJ6" s="17"/>
+      <c r="IK6" s="17"/>
+      <c r="IL6" s="17"/>
+      <c r="IM6" s="17"/>
+      <c r="IN6" s="17"/>
+      <c r="IO6" s="17"/>
+      <c r="IP6" s="17"/>
+      <c r="IQ6" s="17"/>
+      <c r="IR6" s="17"/>
+      <c r="IS6" s="17"/>
+      <c r="IT6" s="17"/>
+      <c r="IU6" s="17"/>
+      <c r="IV6" s="17"/>
+      <c r="IW6" s="17"/>
+    </row>
+    <row r="7" ht="41" customHeight="1" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A9" s="24"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A10" s="25"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A11" s="24"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A13" s="24"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A14" s="25"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A15" s="24"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A17" s="24"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A18" s="25"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A19" s="24"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A20" s="25"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A21" s="24"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A22" s="25"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A23" s="24"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A24" s="25"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A25" s="24"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A26" s="25"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A27" s="24"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A28" s="25"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="6"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" ht="22.75" customHeight="1" spans="1:6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A30" s="25"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="6"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" ht="22.75" customHeight="1" spans="1:6">
+      <c r="A30" s="24"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A31" s="25"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2658,7 +2694,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http:/localhost:8888" tooltip="http://www.xiaomo.info"/>
-    <hyperlink ref="E7" r:id="rId2" tooltip="http://localhost:8888/api/admin/blog/updateAddBl"/>
+    <hyperlink ref="E8" r:id="rId2" tooltip="http://localhost:8888/api/admin/blog/updateAddBl"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
